--- a/negative_yearly_earnings_per_share_2014_df.xlsx
+++ b/negative_yearly_earnings_per_share_2014_df.xlsx
@@ -14,48 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>2014</t>
-  </si>
-  <si>
-    <t>Ticker Symbol</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>APA</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>BSX</t>
-  </si>
-  <si>
-    <t>CHTR</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>EQIX</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>JNPR</t>
-  </si>
-  <si>
-    <t>PRU</t>
-  </si>
-  <si>
-    <t>SPGI</t>
-  </si>
-  <si>
-    <t>VRTX</t>
   </si>
 </sst>
 </file>
@@ -79,12 +40,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,11 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,113 +382,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2">
         <v>-0.52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3">
         <v>-14.06</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2">
         <v>-3.47</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:1">
+      <c r="A5" s="2">
         <v>-0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:1">
+      <c r="A6" s="2">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2">
         <v>-0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:1">
+      <c r="A8" s="2">
         <v>-4.96</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
         <v>-1.26</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
         <v>-0.73</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
         <v>-2.69</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
         <v>-3.14</v>
       </c>
     </row>

--- a/negative_yearly_earnings_per_share_2014_df.xlsx
+++ b/negative_yearly_earnings_per_share_2014_df.xlsx
@@ -14,9 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>2014</t>
+  </si>
+  <si>
+    <t>Ticker Symbol</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>APA</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t>CHTR</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>EQIX</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>JNPR</t>
+  </si>
+  <si>
+    <t>PRU</t>
+  </si>
+  <si>
+    <t>SPGI</t>
+  </si>
+  <si>
+    <t>VRTX</t>
   </si>
 </sst>
 </file>
@@ -382,74 +421,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
         <v>-0.52</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
         <v>-14.06</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
         <v>-3.47</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
         <v>-0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
         <v>-0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
         <v>-4.96</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>-1.26</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>-0.73</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>-2.69</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
         <v>-3.14</v>
       </c>
     </row>
